--- a/data/trans_dic/P41C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Habitat-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.04983795345546695</v>
+        <v>0.04983795345546694</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.01322422769054356</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01715064222858622</v>
+        <v>0.01477100186458822</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003699383677593062</v>
+        <v>0.003568427468908954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.012494034019891</v>
+        <v>0.01168903149366175</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1388293186137218</v>
+        <v>0.1365334057652897</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03145615962863625</v>
+        <v>0.03134621730645747</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0720689140684926</v>
+        <v>0.07446943871110792</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.02361686297043878</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05166589507013224</v>
+        <v>0.05166589507013223</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03752364669530112</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009724078254726308</v>
+        <v>0.00864833917197347</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03208654769519007</v>
+        <v>0.03112765496063842</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02444640432731372</v>
+        <v>0.02433520771704081</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0488011574701145</v>
+        <v>0.04837380638942466</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08016505100257755</v>
+        <v>0.08028149196422074</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05402320991376463</v>
+        <v>0.05540225492169537</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05891749793661205</v>
+        <v>0.05891749793661206</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.03768908963549765</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02209661140572621</v>
+        <v>0.02253664978405959</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01340400962353898</v>
+        <v>0.0137283766775127</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02565653784615532</v>
+        <v>0.02401430629232399</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1236203026981941</v>
+        <v>0.1234437051662554</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08536618998116581</v>
+        <v>0.07827451827471359</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08335947177895063</v>
+        <v>0.08211713207592594</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.05135305111654009</v>
+        <v>0.0513530511165401</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.05246488098176696</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02465475628789615</v>
+        <v>0.02235931622666985</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02935558456737134</v>
+        <v>0.02950032715534129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03435443071713189</v>
+        <v>0.03340187512881115</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1011194987547379</v>
+        <v>0.09688544658578091</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08464558530818551</v>
+        <v>0.08426284241079715</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08085565835451</v>
+        <v>0.07759205870983694</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.04106677845705861</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.04105537229113499</v>
+        <v>0.04105537229113498</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02694629720718468</v>
+        <v>0.02689981491535185</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03056006324792021</v>
+        <v>0.02911533948360192</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03152006685623618</v>
+        <v>0.030677615404891</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0636327101693028</v>
+        <v>0.06365875518289867</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05565302965719671</v>
+        <v>0.05547621006030447</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05317494562323544</v>
+        <v>0.05329169933890091</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2631</v>
+        <v>2266</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4034</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21301</v>
+        <v>20949</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5329</v>
+        <v>5311</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23268</v>
+        <v>24043</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2688</v>
+        <v>2390</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8721</v>
+        <v>8460</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13401</v>
+        <v>13340</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13488</v>
+        <v>13370</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21788</v>
+        <v>21820</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29614</v>
+        <v>30370</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2118</v>
+        <v>2160</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1771</v>
+        <v>1814</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5849</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11848</v>
+        <v>11831</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11279</v>
+        <v>10342</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19004</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4193</v>
+        <v>3803</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5879</v>
+        <v>5908</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12723</v>
+        <v>12370</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17199</v>
+        <v>16479</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16951</v>
+        <v>16875</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29945</v>
+        <v>28736</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18748</v>
+        <v>18716</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>23641</v>
+        <v>22524</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>46314</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>43053</v>
+        <v>42916</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>78133</v>
+        <v>78304</v>
       </c>
     </row>
     <row r="24">
